--- a/data/referentiel/employe.xlsx
+++ b/data/referentiel/employe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJETS\POINTAGE\POINTAGE\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJETS\POINTAGE\POINTAGE\data\referentiel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470C2019-B4E0-421D-95B4-1531BD58EC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D1C66C-FA45-4641-8B85-9335AB283029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,10 +357,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -491,6 +491,9 @@
         <v>15</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
